--- a/biology/Botanique/Château_de_Monthelie/Château_de_Monthelie.xlsx
+++ b/biology/Botanique/Château_de_Monthelie/Château_de_Monthelie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Monthelie</t>
+          <t>Château_de_Monthelie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le château de Monthelie est un château des XVIe et XVIIIe siècle (avec toiture en  tuile vernissée de Bourgogne) associé à un domaine viticole de 10 hectares sur la route des Grands Crus du vignoble de Bourgogne à Monthelie en Côte-d'Or en  Bourgogne. Il a été inscrit monuments historique par arrêté du 24 mars 1988[1] et est propriété de la famille de Suremain depuis plusieurs siècles.
+Le château de Monthelie est un château des XVIe et XVIIIe siècle (avec toiture en  tuile vernissée de Bourgogne) associé à un domaine viticole de 10 hectares sur la route des Grands Crus du vignoble de Bourgogne à Monthelie en Côte-d'Or en  Bourgogne. Il a été inscrit monuments historique par arrêté du 24 mars 1988 et est propriété de la famille de Suremain depuis plusieurs siècles.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Monthelie</t>
+          <t>Château_de_Monthelie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La seigneurie de Monthelie et son vignoble sont des dépendances de l’Abbaye de Cluny durant cinq siècles (Xe au XVe siècle) à la suite du don fait en 1078 par le duc Hugues Ier de Bourgogne.
 En 1722 l'apothicaire beaunois François Fromageot acquiert la seigneurie de Monthelie et la donne en dot à sa fille Jeanne qui épouse le seigneur François Brunet d’Antheuil en 1723. Ces derniers reconstruisent le château en 1746 et le transmettent dans leur famille « Brunet de Monthelie » durant 150 ans, puis aux familles par alliances Suremain, Drouas, Du Chézaud, Surget puis Suremain à nouveau avec Albert de Suremain, officier de cavalerie, en 1903, Robert de Suremain, son fils, en 1930, Bernard et Henry de Suremain, petits-fils, en 1988. Comme son père, Bernard, en 1956, Éric de Suremain, arrière-petit-fils, a repris l'exploitation du domaine depuis 1978.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Monthelie</t>
+          <t>Château_de_Monthelie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Monthelie</t>
+          <t>Château_de_Monthelie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +586,9 @@
           <t>Exploitation viticole</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine exploite 10,7 hectares de vigne sur les communes de Rully et Monthelie et est converti à l'agriculture biodynamique depuis 1996.
 Les parcelles se partagent entre le Monthelie Village et Monthelie Premier Cru, et le Rully Premier Cru.
